--- a/xlsx/图书馆管理学_intext.xlsx
+++ b/xlsx/图书馆管理学_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9B%B8%E5%88%86%E9%A1%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>圖書分類法</t>
+    <t>图书分类法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%A8%81%E5%8D%81%E8%BF%9B%E5%88%B6%E5%9B%BE%E4%B9%A6%E5%88%86%E7%B1%BB%E6%B3%95</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8%E5%9C%96%E6%9B%B8%E5%88%86%E9%A1%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>美國國會圖書館圖書分類法</t>
+    <t>美国国会图书馆图书分类法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%96%E6%9B%B8%E5%88%86%E9%A1%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>中國圖書分類法</t>
+    <t>中国图书分类法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%B0%B8%E7%A5%A5%E4%B8%AD%E6%96%87%E5%9C%96%E6%9B%B8%E5%88%86%E9%A1%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>賴永祥中文圖書分類法</t>
+    <t>赖永祥中文图书分类法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%9B%BE%E4%B9%A6%E9%A6%86%E5%9B%BE%E4%B9%A6%E5%88%86%E7%B1%BB%E6%B3%95</t>
